--- a/dev/methods.xlsx
+++ b/dev/methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fguerrero\OneDrive - Linear Chemicals,SLU\Documentos\R\importr2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fguerrero\OneDrive - Linear Chemicals,SLU\Documentos\R\importr2\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFAA3F-4122-46DA-85DA-8C3E40C1E85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202EDDDA-4D3E-44A1-9B3C-8C910838E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="209">
   <si>
     <t>instrument</t>
   </si>
@@ -600,6 +600,57 @@
   </si>
   <si>
     <t>URIC ACID</t>
+  </si>
+  <si>
+    <t>Iron FERROZ</t>
+  </si>
+  <si>
+    <t>MG BR</t>
+  </si>
+  <si>
+    <t>MG MR</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>Lida 300</t>
+  </si>
+  <si>
+    <t>Urea Bun</t>
+  </si>
+  <si>
+    <t>PHOS</t>
+  </si>
+  <si>
+    <t>CHLO</t>
+  </si>
+  <si>
+    <t>Phosp UV</t>
+  </si>
+  <si>
+    <t>C.Arsenazo</t>
+  </si>
+  <si>
+    <t>LDH BR</t>
+  </si>
+  <si>
+    <t>DBILDPD</t>
+  </si>
+  <si>
+    <t>Bilirubin Total (no bk)</t>
+  </si>
+  <si>
+    <t>Bilirubin Total DPD</t>
+  </si>
+  <si>
+    <t>Bilirubin Total MR</t>
+  </si>
+  <si>
+    <t>TBILDPD</t>
+  </si>
+  <si>
+    <t>CK-NAC</t>
   </si>
 </sst>
 </file>
@@ -655,9 +706,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -695,7 +746,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -801,7 +852,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1149,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>183</v>
@@ -1109,7 +1160,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>183</v>
@@ -1120,7 +1171,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>183</v>
@@ -1131,7 +1182,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>183</v>
@@ -1978,607 +2029,783 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>181</v>
       </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>196</v>
+      </c>
+      <c r="C158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>205</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2590,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/methods.xlsx
+++ b/dev/methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fguerrero\OneDrive - Linear Chemicals,SLU\Documentos\R\importr2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fguerrero\OneDrive - Linear Chemicals,SLU\Documentos\R\importr2\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFAA3F-4122-46DA-85DA-8C3E40C1E85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BDFEB-54D5-4B18-8E0E-BA348BE6FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="201">
   <si>
     <t>instrument</t>
   </si>
@@ -600,6 +600,33 @@
   </si>
   <si>
     <t>URIC ACID</t>
+  </si>
+  <si>
+    <t>Iron FERROZ</t>
+  </si>
+  <si>
+    <t>MG BR</t>
+  </si>
+  <si>
+    <t>MG MR</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>Lida 300</t>
+  </si>
+  <si>
+    <t>Urea Bun</t>
+  </si>
+  <si>
+    <t>PHOS</t>
+  </si>
+  <si>
+    <t>CHLO</t>
+  </si>
+  <si>
+    <t>Phosp UV</t>
   </si>
 </sst>
 </file>
@@ -951,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,607 +2005,717 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>181</v>
       </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2590,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
